--- a/output/N6005_weld_stress.xlsx
+++ b/output/N6005_weld_stress.xlsx
@@ -871,7 +871,7 @@
         <v>0.453483375</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0161203515625</v>
+        <v>0.0161203525390625</v>
       </c>
     </row>
     <row r="12">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>N6005</t>
+          <t>P0160_ICCP_Check.ideaCon</t>
         </is>
       </c>
     </row>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-11-20 17:40:07</t>
+          <t>2025-11-20 17:59:21</t>
         </is>
       </c>
     </row>

--- a/output/N6005_weld_stress.xlsx
+++ b/output/N6005_weld_stress.xlsx
@@ -871,7 +871,7 @@
         <v>0.453483375</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0161203525390625</v>
+        <v>0.0161203515625</v>
       </c>
     </row>
     <row r="12">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-11-20 17:59:21</t>
+          <t>2025-11-21 09:44:10</t>
         </is>
       </c>
     </row>
